--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem4/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem4/123/word_level_predictions_123.xlsx
@@ -1253,7 +1253,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G16" s="2" t="b">
@@ -1277,7 +1277,7 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3021,81 +3021,81 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G50" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I50" t="b">
+        <v>1</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K50" t="b">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>3</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>properly</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>3</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G50" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I50" t="b">
-        <v>1</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K50" t="b">
-        <v>1</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B51" s="2" t="inlineStr">
-        <is>
-          <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
-        </is>
-      </c>
-      <c r="C51" s="2" t="inlineStr">
-        <is>
-          <t>properly</t>
-        </is>
-      </c>
-      <c r="D51" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E51" s="2" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F51" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G51" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I51" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K51" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L51" s="2" t="inlineStr">
+      <c r="G51" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I51" t="b">
+        <v>1</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K51" t="b">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -3645,7 +3645,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G62" t="b">
@@ -3669,7 +3669,7 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -3697,7 +3697,7 @@
       </c>
       <c r="F63" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G63" s="2" t="b">
@@ -3709,11 +3709,11 @@
         </is>
       </c>
       <c r="I63" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K63" s="2" t="b">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="L63" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -3749,7 +3749,7 @@
       </c>
       <c r="F64" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G64" s="2" t="b">
@@ -3761,11 +3761,11 @@
         </is>
       </c>
       <c r="I64" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K64" s="2" t="b">
@@ -7233,7 +7233,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G131" t="b">
@@ -7257,57 +7257,57 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="n">
+      <c r="A132" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B132" t="inlineStr">
+      <c r="B132" s="2" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
+      <c r="C132" s="2" t="inlineStr">
         <is>
           <t>off</t>
         </is>
       </c>
-      <c r="D132" t="n">
+      <c r="D132" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E132" t="inlineStr">
+      <c r="E132" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
+      <c r="F132" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G132" t="b">
-        <v>1</v>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I132" t="b">
-        <v>1</v>
-      </c>
-      <c r="J132" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K132" t="b">
-        <v>1</v>
-      </c>
-      <c r="L132" t="inlineStr">
+      <c r="G132" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H132" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I132" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J132" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K132" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L132" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -11549,237 +11549,237 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G214" t="b">
+        <v>1</v>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I214" t="b">
+        <v>1</v>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K214" t="b">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>13</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Compass</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>8</v>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G215" t="b">
+        <v>1</v>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I215" t="b">
+        <v>1</v>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K215" t="b">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>13</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>installation</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>9</v>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G216" t="b">
+        <v>1</v>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I216" t="b">
+        <v>1</v>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K216" t="b">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>13</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>and</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>10</v>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G217" t="b">
+        <v>1</v>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I217" t="b">
+        <v>1</v>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K217" t="b">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>13</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>interference</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>11</v>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G214" t="b">
-        <v>1</v>
-      </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I214" t="b">
-        <v>1</v>
-      </c>
-      <c r="J214" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K214" t="b">
-        <v>1</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B215" s="2" t="inlineStr">
-        <is>
-          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
-        </is>
-      </c>
-      <c r="C215" s="2" t="inlineStr">
-        <is>
-          <t>Compass</t>
-        </is>
-      </c>
-      <c r="D215" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E215" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F215" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G215" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H215" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I215" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J215" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K215" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L215" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B216" s="2" t="inlineStr">
-        <is>
-          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
-        </is>
-      </c>
-      <c r="C216" s="2" t="inlineStr">
-        <is>
-          <t>installation</t>
-        </is>
-      </c>
-      <c r="D216" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E216" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F216" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G216" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H216" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I216" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J216" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K216" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L216" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B217" s="2" t="inlineStr">
-        <is>
-          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
-        </is>
-      </c>
-      <c r="C217" s="2" t="inlineStr">
-        <is>
-          <t>and</t>
-        </is>
-      </c>
-      <c r="D217" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E217" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F217" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G217" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H217" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I217" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J217" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K217" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L217" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B218" s="2" t="inlineStr">
-        <is>
-          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
-        </is>
-      </c>
-      <c r="C218" s="2" t="inlineStr">
-        <is>
-          <t>interference</t>
-        </is>
-      </c>
-      <c r="D218" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="E218" s="2" t="inlineStr">
+      <c r="F218" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F218" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G218" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H218" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I218" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J218" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K218" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L218" s="2" t="inlineStr">
+      <c r="G218" t="b">
+        <v>1</v>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I218" t="b">
+        <v>1</v>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K218" t="b">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -11913,7 +11913,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G221" t="b">
@@ -11937,7 +11937,7 @@
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -11965,7 +11965,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G222" t="b">
@@ -11989,7 +11989,7 @@
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -13294,522 +13294,522 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="2" t="n">
+      <c r="A248" t="n">
         <v>16</v>
       </c>
-      <c r="B248" s="2" t="inlineStr">
+      <c r="B248" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C248" s="2" t="inlineStr">
+      <c r="C248" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D248" s="2" t="n">
+      <c r="D248" t="n">
         <v>4</v>
       </c>
-      <c r="E248" s="2" t="inlineStr">
+      <c r="E248" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F248" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G248" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H248" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I248" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J248" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K248" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L248" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G248" t="b">
+        <v>1</v>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I248" t="b">
+        <v>1</v>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K248" t="b">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="2" t="n">
+      <c r="A249" t="n">
         <v>16</v>
       </c>
-      <c r="B249" s="2" t="inlineStr">
+      <c r="B249" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C249" s="2" t="inlineStr">
+      <c r="C249" t="inlineStr">
         <is>
           <t>may</t>
         </is>
       </c>
-      <c r="D249" s="2" t="n">
+      <c r="D249" t="n">
         <v>5</v>
       </c>
-      <c r="E249" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F249" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G249" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H249" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I249" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J249" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K249" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L249" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G249" t="b">
+        <v>1</v>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I249" t="b">
+        <v>1</v>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K249" t="b">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="2" t="n">
+      <c r="A250" t="n">
         <v>16</v>
       </c>
-      <c r="B250" s="2" t="inlineStr">
+      <c r="B250" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C250" s="2" t="inlineStr">
+      <c r="C250" t="inlineStr">
         <is>
           <t>be</t>
         </is>
       </c>
-      <c r="D250" s="2" t="n">
+      <c r="D250" t="n">
         <v>6</v>
       </c>
-      <c r="E250" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F250" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G250" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H250" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I250" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J250" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K250" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L250" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G250" t="b">
+        <v>1</v>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I250" t="b">
+        <v>1</v>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K250" t="b">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="2" t="n">
+      <c r="A251" t="n">
         <v>16</v>
       </c>
-      <c r="B251" s="2" t="inlineStr">
+      <c r="B251" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C251" s="2" t="inlineStr">
+      <c r="C251" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D251" s="2" t="n">
+      <c r="D251" t="n">
         <v>7</v>
       </c>
-      <c r="E251" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F251" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G251" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H251" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I251" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J251" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K251" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L251" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G251" t="b">
+        <v>1</v>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I251" t="b">
+        <v>1</v>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K251" t="b">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="252">
-      <c r="A252" s="2" t="n">
+      <c r="A252" t="n">
         <v>16</v>
       </c>
-      <c r="B252" s="2" t="inlineStr">
+      <c r="B252" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C252" s="2" t="inlineStr">
+      <c r="C252" t="inlineStr">
         <is>
           <t>violation</t>
         </is>
       </c>
-      <c r="D252" s="2" t="n">
+      <c r="D252" t="n">
         <v>8</v>
       </c>
-      <c r="E252" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F252" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G252" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H252" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I252" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J252" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K252" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L252" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G252" t="b">
+        <v>1</v>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I252" t="b">
+        <v>1</v>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K252" t="b">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="2" t="n">
+      <c r="A253" t="n">
         <v>16</v>
       </c>
-      <c r="B253" s="2" t="inlineStr">
+      <c r="B253" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C253" s="2" t="inlineStr">
+      <c r="C253" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D253" s="2" t="n">
+      <c r="D253" t="n">
         <v>9</v>
       </c>
-      <c r="E253" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F253" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G253" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H253" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I253" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J253" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K253" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L253" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G253" t="b">
+        <v>1</v>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I253" t="b">
+        <v>1</v>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K253" t="b">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="2" t="n">
+      <c r="A254" t="n">
         <v>16</v>
       </c>
-      <c r="B254" s="2" t="inlineStr">
+      <c r="B254" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C254" s="2" t="inlineStr">
+      <c r="C254" t="inlineStr">
         <is>
           <t>local</t>
         </is>
       </c>
-      <c r="D254" s="2" t="n">
+      <c r="D254" t="n">
         <v>10</v>
       </c>
-      <c r="E254" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F254" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G254" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H254" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I254" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J254" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K254" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L254" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G254" t="b">
+        <v>1</v>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I254" t="b">
+        <v>1</v>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K254" t="b">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="2" t="n">
+      <c r="A255" t="n">
         <v>16</v>
       </c>
-      <c r="B255" s="2" t="inlineStr">
+      <c r="B255" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C255" s="2" t="inlineStr">
+      <c r="C255" t="inlineStr">
         <is>
           <t>laws</t>
         </is>
       </c>
-      <c r="D255" s="2" t="n">
+      <c r="D255" t="n">
         <v>11</v>
       </c>
-      <c r="E255" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F255" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G255" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H255" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I255" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J255" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K255" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L255" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G255" t="b">
+        <v>1</v>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I255" t="b">
+        <v>1</v>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K255" t="b">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="256">
-      <c r="A256" s="2" t="n">
+      <c r="A256" t="n">
         <v>16</v>
       </c>
-      <c r="B256" s="2" t="inlineStr">
+      <c r="B256" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C256" s="2" t="inlineStr">
+      <c r="C256" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D256" s="2" t="n">
+      <c r="D256" t="n">
         <v>12</v>
       </c>
-      <c r="E256" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F256" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G256" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H256" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I256" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J256" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K256" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L256" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G256" t="b">
+        <v>1</v>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I256" t="b">
+        <v>1</v>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K256" t="b">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="2" t="n">
+      <c r="A257" t="n">
         <v>16</v>
       </c>
-      <c r="B257" s="2" t="inlineStr">
+      <c r="B257" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C257" s="2" t="inlineStr">
+      <c r="C257" t="inlineStr">
         <is>
           <t>regulations</t>
         </is>
       </c>
-      <c r="D257" s="2" t="n">
+      <c r="D257" t="n">
         <v>13</v>
       </c>
-      <c r="E257" s="2" t="inlineStr">
+      <c r="E257" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F257" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G257" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H257" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I257" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J257" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K257" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L257" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G257" t="b">
+        <v>1</v>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I257" t="b">
+        <v>1</v>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K257" t="b">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem4/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem4/123/word_level_predictions_123.xlsx
@@ -1253,7 +1253,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G16" s="2" t="b">
@@ -1277,7 +1277,7 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -3021,7 +3021,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G50" t="b">
@@ -3045,57 +3045,57 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
+      <c r="A51" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C51" s="2" t="inlineStr">
         <is>
           <t>properly</t>
         </is>
       </c>
-      <c r="D51" t="n">
+      <c r="D51" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="E51" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="F51" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G51" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I51" t="b">
-        <v>1</v>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K51" t="b">
-        <v>1</v>
-      </c>
-      <c r="L51" t="inlineStr">
+      <c r="G51" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L51" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -3645,7 +3645,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G62" t="b">
@@ -3669,7 +3669,7 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3697,7 +3697,7 @@
       </c>
       <c r="F63" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G63" s="2" t="b">
@@ -3709,11 +3709,11 @@
         </is>
       </c>
       <c r="I63" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K63" s="2" t="b">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="L63" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3749,7 +3749,7 @@
       </c>
       <c r="F64" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G64" s="2" t="b">
@@ -3761,11 +3761,11 @@
         </is>
       </c>
       <c r="I64" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K64" s="2" t="b">
@@ -7233,81 +7233,81 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G131" t="b">
+        <v>1</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I131" t="b">
+        <v>1</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K131" t="b">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>9</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>3</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G131" t="b">
-        <v>1</v>
-      </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I131" t="b">
-        <v>1</v>
-      </c>
-      <c r="J131" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K131" t="b">
-        <v>1</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B132" s="2" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C132" s="2" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
-      <c r="D132" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E132" s="2" t="inlineStr">
+      <c r="F132" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F132" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G132" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H132" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I132" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J132" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K132" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L132" s="2" t="inlineStr">
+      <c r="G132" t="b">
+        <v>1</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I132" t="b">
+        <v>1</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K132" t="b">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -11549,7 +11549,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G214" t="b">
@@ -11573,213 +11573,213 @@
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="n">
+      <c r="A215" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B215" t="inlineStr">
+      <c r="B215" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C215" t="inlineStr">
+      <c r="C215" s="2" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D215" t="n">
+      <c r="D215" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G215" t="b">
-        <v>1</v>
-      </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I215" t="b">
-        <v>1</v>
-      </c>
-      <c r="J215" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K215" t="b">
-        <v>1</v>
-      </c>
-      <c r="L215" t="inlineStr">
+      <c r="E215" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F215" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G215" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H215" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I215" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J215" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K215" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L215" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="n">
+      <c r="A216" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B216" t="inlineStr">
+      <c r="B216" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C216" t="inlineStr">
+      <c r="C216" s="2" t="inlineStr">
         <is>
           <t>installation</t>
         </is>
       </c>
-      <c r="D216" t="n">
+      <c r="D216" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G216" t="b">
-        <v>1</v>
-      </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I216" t="b">
-        <v>1</v>
-      </c>
-      <c r="J216" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K216" t="b">
-        <v>1</v>
-      </c>
-      <c r="L216" t="inlineStr">
+      <c r="E216" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F216" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G216" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H216" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I216" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J216" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K216" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L216" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="n">
+      <c r="A217" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B217" t="inlineStr">
+      <c r="B217" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C217" t="inlineStr">
+      <c r="C217" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D217" t="n">
+      <c r="D217" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G217" t="b">
-        <v>1</v>
-      </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I217" t="b">
-        <v>1</v>
-      </c>
-      <c r="J217" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K217" t="b">
-        <v>1</v>
-      </c>
-      <c r="L217" t="inlineStr">
+      <c r="E217" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F217" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G217" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H217" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I217" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J217" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K217" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L217" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="n">
+      <c r="A218" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B218" t="inlineStr">
+      <c r="B218" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C218" t="inlineStr">
+      <c r="C218" s="2" t="inlineStr">
         <is>
           <t>interference</t>
         </is>
       </c>
-      <c r="D218" t="n">
+      <c r="D218" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E218" t="inlineStr">
+      <c r="E218" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F218" t="inlineStr">
+      <c r="F218" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G218" t="b">
-        <v>1</v>
-      </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I218" t="b">
-        <v>1</v>
-      </c>
-      <c r="J218" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K218" t="b">
-        <v>1</v>
-      </c>
-      <c r="L218" t="inlineStr">
+      <c r="G218" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H218" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I218" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J218" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K218" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L218" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -11913,7 +11913,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G221" t="b">
@@ -11937,7 +11937,7 @@
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11965,7 +11965,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G222" t="b">
@@ -11989,7 +11989,7 @@
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13294,522 +13294,522 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="n">
+      <c r="A248" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B248" t="inlineStr">
+      <c r="B248" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C248" t="inlineStr">
+      <c r="C248" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D248" t="n">
+      <c r="D248" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E248" t="inlineStr">
+      <c r="E248" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F248" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G248" t="b">
-        <v>1</v>
-      </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I248" t="b">
-        <v>1</v>
-      </c>
-      <c r="J248" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K248" t="b">
-        <v>1</v>
-      </c>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F248" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G248" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H248" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I248" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J248" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K248" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L248" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="n">
+      <c r="A249" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B249" t="inlineStr">
+      <c r="B249" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C249" t="inlineStr">
+      <c r="C249" s="2" t="inlineStr">
         <is>
           <t>may</t>
         </is>
       </c>
-      <c r="D249" t="n">
+      <c r="D249" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E249" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F249" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G249" t="b">
-        <v>1</v>
-      </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I249" t="b">
-        <v>1</v>
-      </c>
-      <c r="J249" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K249" t="b">
-        <v>1</v>
-      </c>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E249" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F249" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G249" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H249" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I249" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J249" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K249" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L249" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="250">
-      <c r="A250" t="n">
+      <c r="A250" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B250" t="inlineStr">
+      <c r="B250" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C250" t="inlineStr">
+      <c r="C250" s="2" t="inlineStr">
         <is>
           <t>be</t>
         </is>
       </c>
-      <c r="D250" t="n">
+      <c r="D250" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E250" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F250" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G250" t="b">
-        <v>1</v>
-      </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I250" t="b">
-        <v>1</v>
-      </c>
-      <c r="J250" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K250" t="b">
-        <v>1</v>
-      </c>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E250" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F250" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G250" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H250" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I250" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J250" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K250" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L250" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="n">
+      <c r="A251" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B251" t="inlineStr">
+      <c r="B251" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C251" t="inlineStr">
+      <c r="C251" s="2" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D251" t="n">
+      <c r="D251" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E251" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F251" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G251" t="b">
-        <v>1</v>
-      </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I251" t="b">
-        <v>1</v>
-      </c>
-      <c r="J251" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K251" t="b">
-        <v>1</v>
-      </c>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E251" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F251" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G251" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H251" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I251" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J251" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K251" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L251" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="n">
+      <c r="A252" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B252" t="inlineStr">
+      <c r="B252" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C252" t="inlineStr">
+      <c r="C252" s="2" t="inlineStr">
         <is>
           <t>violation</t>
         </is>
       </c>
-      <c r="D252" t="n">
+      <c r="D252" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E252" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F252" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G252" t="b">
-        <v>1</v>
-      </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I252" t="b">
-        <v>1</v>
-      </c>
-      <c r="J252" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K252" t="b">
-        <v>1</v>
-      </c>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E252" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F252" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G252" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H252" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I252" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J252" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K252" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L252" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="253">
-      <c r="A253" t="n">
+      <c r="A253" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B253" t="inlineStr">
+      <c r="B253" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C253" t="inlineStr">
+      <c r="C253" s="2" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D253" t="n">
+      <c r="D253" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E253" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F253" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G253" t="b">
-        <v>1</v>
-      </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I253" t="b">
-        <v>1</v>
-      </c>
-      <c r="J253" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K253" t="b">
-        <v>1</v>
-      </c>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E253" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F253" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G253" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H253" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I253" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J253" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K253" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L253" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="n">
+      <c r="A254" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B254" t="inlineStr">
+      <c r="B254" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C254" t="inlineStr">
+      <c r="C254" s="2" t="inlineStr">
         <is>
           <t>local</t>
         </is>
       </c>
-      <c r="D254" t="n">
+      <c r="D254" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E254" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F254" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G254" t="b">
-        <v>1</v>
-      </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I254" t="b">
-        <v>1</v>
-      </c>
-      <c r="J254" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K254" t="b">
-        <v>1</v>
-      </c>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E254" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F254" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G254" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H254" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I254" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J254" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K254" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L254" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="n">
+      <c r="A255" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B255" t="inlineStr">
+      <c r="B255" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C255" t="inlineStr">
+      <c r="C255" s="2" t="inlineStr">
         <is>
           <t>laws</t>
         </is>
       </c>
-      <c r="D255" t="n">
+      <c r="D255" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E255" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F255" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G255" t="b">
-        <v>1</v>
-      </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I255" t="b">
-        <v>1</v>
-      </c>
-      <c r="J255" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K255" t="b">
-        <v>1</v>
-      </c>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E255" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F255" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G255" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H255" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I255" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J255" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K255" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L255" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="n">
+      <c r="A256" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B256" t="inlineStr">
+      <c r="B256" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C256" t="inlineStr">
+      <c r="C256" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D256" t="n">
+      <c r="D256" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E256" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F256" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G256" t="b">
-        <v>1</v>
-      </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I256" t="b">
-        <v>1</v>
-      </c>
-      <c r="J256" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K256" t="b">
-        <v>1</v>
-      </c>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E256" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F256" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G256" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H256" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I256" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J256" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K256" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L256" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="n">
+      <c r="A257" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B257" t="inlineStr">
+      <c r="B257" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C257" t="inlineStr">
+      <c r="C257" s="2" t="inlineStr">
         <is>
           <t>regulations</t>
         </is>
       </c>
-      <c r="D257" t="n">
+      <c r="D257" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E257" t="inlineStr">
+      <c r="E257" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F257" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G257" t="b">
-        <v>1</v>
-      </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I257" t="b">
-        <v>1</v>
-      </c>
-      <c r="J257" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K257" t="b">
-        <v>1</v>
-      </c>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F257" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G257" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H257" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I257" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J257" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K257" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L257" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
